--- a/Machine.xlsx
+++ b/Machine.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -23,10 +23,13 @@
     <t>MAINTENANCE_TIME</t>
   </si>
   <si>
-    <t>CNC Machine</t>
+    <t>blade</t>
   </si>
   <si>
     <t>3months</t>
+  </si>
+  <si>
+    <t>CNC Machine</t>
   </si>
   <si>
     <t>Milling Machine</t>
@@ -35,52 +38,16 @@
     <t>4months</t>
   </si>
   <si>
-    <t>Compressor Machine</t>
+    <t>slotting</t>
   </si>
   <si>
-    <t>12months</t>
+    <t>5 months</t>
   </si>
   <si>
-    <t>Power Pressed Machine</t>
-  </si>
-  <si>
-    <t>Fly press Machine</t>
-  </si>
-  <si>
-    <t>2months</t>
-  </si>
-  <si>
-    <t>Slotting</t>
-  </si>
-  <si>
-    <t>Mechanical shearing machine</t>
-  </si>
-  <si>
-    <t>6months</t>
-  </si>
-  <si>
-    <t>Shaping Machine</t>
-  </si>
-  <si>
-    <t>5months</t>
-  </si>
-  <si>
-    <t>Hydraulic press break Machine</t>
+    <t>turner</t>
   </si>
   <si>
     <t>7months</t>
-  </si>
-  <si>
-    <t>Universal Turning Machine</t>
-  </si>
-  <si>
-    <t>10months</t>
-  </si>
-  <si>
-    <t>Drilling Machine</t>
-  </si>
-  <si>
-    <t>Pipe bending Machine</t>
   </si>
 </sst>
 </file>
@@ -125,14 +92,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.5546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -149,7 +116,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>123.0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -160,123 +127,68 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>1567.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.0</v>
+        <v>678.0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Machine.xlsx
+++ b/Machine.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -23,31 +23,13 @@
     <t>MAINTENANCE_TIME</t>
   </si>
   <si>
-    <t>blade</t>
+    <t>turning machine</t>
   </si>
   <si>
-    <t>3months</t>
+    <t>January</t>
   </si>
   <si>
-    <t>CNC Machine</t>
-  </si>
-  <si>
-    <t>Milling Machine</t>
-  </si>
-  <si>
-    <t>4months</t>
-  </si>
-  <si>
-    <t>slotting</t>
-  </si>
-  <si>
-    <t>5 months</t>
-  </si>
-  <si>
-    <t>turner</t>
-  </si>
-  <si>
-    <t>7months</t>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -92,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -116,7 +98,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123.0</v>
+        <v>1234.0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -127,68 +109,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1567.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>678.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
